--- a/Software Requirements/Section B&C.xlsx
+++ b/Software Requirements/Section B&C.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11310" xr2:uid="{87300792-DFD3-4DA1-B7A3-428F2057406F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11310" activeTab="1" xr2:uid="{87300792-DFD3-4DA1-B7A3-428F2057406F}"/>
   </bookViews>
   <sheets>
     <sheet name="Procedures Section" sheetId="1" r:id="rId1"/>
@@ -2402,8 +2402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69:B102"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4748,7 +4748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M5" sqref="M5:M10"/>
     </sheetView>
   </sheetViews>

--- a/Software Requirements/Section B&C.xlsx
+++ b/Software Requirements/Section B&C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11310" activeTab="1" xr2:uid="{87300792-DFD3-4DA1-B7A3-428F2057406F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11310" xr2:uid="{87300792-DFD3-4DA1-B7A3-428F2057406F}"/>
   </bookViews>
   <sheets>
     <sheet name="Procedures Section" sheetId="1" r:id="rId1"/>
@@ -2402,8 +2402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C102"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4748,7 +4748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="M5:M10"/>
     </sheetView>
   </sheetViews>

--- a/Software Requirements/Section B&C.xlsx
+++ b/Software Requirements/Section B&C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11310" xr2:uid="{87300792-DFD3-4DA1-B7A3-428F2057406F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11310" activeTab="2" xr2:uid="{87300792-DFD3-4DA1-B7A3-428F2057406F}"/>
   </bookViews>
   <sheets>
     <sheet name="Procedures Section" sheetId="1" r:id="rId1"/>
@@ -2402,8 +2402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5416,7 +5416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M342"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>

--- a/Software Requirements/Section B&C.xlsx
+++ b/Software Requirements/Section B&C.xlsx
@@ -5417,7 +5417,7 @@
   <dimension ref="A1:M342"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Software Requirements/Section B&C.xlsx
+++ b/Software Requirements/Section B&C.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\Work\Programming\Ada\System Checks\Software Requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\THFP2\user\Simon.Crowther\Documents\Git\ADLAS_Ada_System\Software Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11310" activeTab="2" xr2:uid="{87300792-DFD3-4DA1-B7A3-428F2057406F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Procedures Section" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Tests Section'!$A$1:$M$339</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2301" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2301" uniqueCount="512">
   <si>
     <t>Procedure</t>
   </si>
@@ -740,32 +740,6 @@
    Test_Pass
 else
   Log E_Fail
-end if</t>
-  </si>
-  <si>
-    <t>While Para_1 = Para_2
-       Set Para_3 to TRUE
-If Para_4 = Para_5
-   Log Fail
-else
-  Test_Pass
-end if</t>
-  </si>
-  <si>
-    <t>While Para_1 &gt; Para_2
-       Set Para_3 to TRUE
-If Para_4 = Para_5
-   Log Fail
-else
-  Test_Pass
-end if</t>
-  </si>
-  <si>
-    <t>While Para_1 &gt; Timer_End
-If Para_2 &gt; Para_3
-   Log Fail
-else
-  Test_Pass
 end if</t>
   </si>
   <si>
@@ -1919,7 +1893,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2107,7 +2081,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_Sheet1" xfId="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2399,11 +2373,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2704,7 +2678,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H13" s="5"/>
     </row>
@@ -2726,7 +2700,7 @@
         <v>5</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H14" s="5"/>
     </row>
@@ -2880,7 +2854,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -2898,11 +2872,11 @@
         <v>2</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -2920,11 +2894,11 @@
         <v>2</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -2942,11 +2916,11 @@
         <v>5</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -2964,11 +2938,11 @@
         <v>5</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -2986,7 +2960,7 @@
         <v>3</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="H26" s="5"/>
     </row>
@@ -3030,7 +3004,7 @@
         <v>3</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H28" s="5"/>
     </row>
@@ -3052,7 +3026,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H29" s="5"/>
     </row>
@@ -3074,7 +3048,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H30" s="5"/>
     </row>
@@ -3096,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H31" s="5"/>
     </row>
@@ -3118,7 +3092,7 @@
         <v>4</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H32" s="5"/>
     </row>
@@ -3416,7 +3390,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H46" s="5"/>
     </row>
@@ -3438,7 +3412,7 @@
         <v>2</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H47" s="5"/>
     </row>
@@ -3460,7 +3434,7 @@
         <v>2</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H48" s="5"/>
     </row>
@@ -3482,7 +3456,7 @@
         <v>3</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H49" s="5"/>
     </row>
@@ -3504,7 +3478,7 @@
         <v>4</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H50" s="5"/>
     </row>
@@ -3526,7 +3500,7 @@
         <v>4</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H51" s="5"/>
     </row>
@@ -3548,7 +3522,7 @@
         <v>4</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H52" s="5"/>
     </row>
@@ -3592,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H54" s="5"/>
     </row>
@@ -3742,7 +3716,7 @@
         <v>3</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H61" s="5"/>
     </row>
@@ -3764,7 +3738,7 @@
         <v>3</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H62" s="5"/>
     </row>
@@ -3786,7 +3760,7 @@
         <v>4</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H63" s="5"/>
     </row>
@@ -3808,7 +3782,7 @@
         <v>3</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H64" s="5"/>
     </row>
@@ -3830,7 +3804,7 @@
         <v>3</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H65" s="5"/>
     </row>
@@ -3852,7 +3826,7 @@
         <v>3</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H66" s="5"/>
     </row>
@@ -3874,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H67" s="5"/>
     </row>
@@ -3896,7 +3870,7 @@
         <v>3</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H68" s="5"/>
     </row>
@@ -3918,7 +3892,7 @@
         <v>3</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H69" s="5"/>
     </row>
@@ -3940,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H70" s="5"/>
     </row>
@@ -3962,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H71" s="5"/>
     </row>
@@ -3974,7 +3948,7 @@
         <v>182</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D72" s="18">
         <v>50104000</v>
@@ -3984,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H72" s="5"/>
     </row>
@@ -3996,7 +3970,7 @@
         <v>182</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D73" s="18">
         <v>50105000</v>
@@ -4006,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H73" s="5"/>
     </row>
@@ -4018,7 +3992,7 @@
         <v>182</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D74" s="18">
         <v>50106000</v>
@@ -4028,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H74" s="5"/>
     </row>
@@ -4040,7 +4014,7 @@
         <v>182</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D75" s="18">
         <v>50107000</v>
@@ -4050,7 +4024,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H75" s="5"/>
     </row>
@@ -4062,7 +4036,7 @@
         <v>182</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D76" s="18">
         <v>50108000</v>
@@ -4072,7 +4046,7 @@
         <v>2</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H76" s="5"/>
     </row>
@@ -4084,7 +4058,7 @@
         <v>182</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D77" s="18">
         <v>50109000</v>
@@ -4094,7 +4068,7 @@
         <v>3</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H77" s="5"/>
     </row>
@@ -4106,7 +4080,7 @@
         <v>182</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D78" s="18">
         <v>50110000</v>
@@ -4116,7 +4090,7 @@
         <v>3</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H78" s="5"/>
     </row>
@@ -4128,7 +4102,7 @@
         <v>182</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D79" s="18">
         <v>50111000</v>
@@ -4138,7 +4112,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H79" s="5"/>
     </row>
@@ -4160,7 +4134,7 @@
         <v>2</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H80" s="5"/>
     </row>
@@ -4182,7 +4156,7 @@
         <v>2</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H81" s="5"/>
     </row>
@@ -4204,7 +4178,7 @@
         <v>2</v>
       </c>
       <c r="G82" s="19" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H82" s="5"/>
     </row>
@@ -4248,7 +4222,7 @@
         <v>4</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H84" s="5"/>
     </row>
@@ -4292,7 +4266,7 @@
         <v>4</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H86" s="5"/>
     </row>
@@ -4314,7 +4288,7 @@
         <v>4</v>
       </c>
       <c r="G87" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H87" s="5"/>
     </row>
@@ -4336,7 +4310,7 @@
         <v>3</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H88" s="5"/>
     </row>
@@ -4358,7 +4332,7 @@
         <v>4</v>
       </c>
       <c r="G89" s="19" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H89" s="5"/>
     </row>
@@ -4380,7 +4354,7 @@
         <v>3</v>
       </c>
       <c r="G90" s="19" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H90" s="5"/>
     </row>
@@ -4468,7 +4442,7 @@
         <v>4</v>
       </c>
       <c r="G94" s="19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H94" s="5"/>
     </row>
@@ -4490,7 +4464,7 @@
         <v>2</v>
       </c>
       <c r="G95" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H95" s="5"/>
     </row>
@@ -4556,7 +4530,7 @@
         <v>3</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H98" s="5"/>
     </row>
@@ -4578,7 +4552,7 @@
         <v>3</v>
       </c>
       <c r="G99" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H99" s="5"/>
     </row>
@@ -4600,7 +4574,7 @@
         <v>2</v>
       </c>
       <c r="G100" s="19" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H100" s="5"/>
     </row>
@@ -4622,7 +4596,7 @@
         <v>3</v>
       </c>
       <c r="G101" s="19" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H101" s="5"/>
     </row>
@@ -4634,7 +4608,7 @@
         <v>181</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D102" s="18">
         <v>50703000</v>
@@ -4644,7 +4618,7 @@
         <v>4</v>
       </c>
       <c r="G102" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H102" s="5"/>
     </row>
@@ -4745,7 +4719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4811,31 +4785,31 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>94</v>
@@ -5053,35 +5027,35 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B11">
         <f>COUNTIF('Procedures Section'!$A:$A,"IPT")</f>
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E11">
         <f>COUNTIF('Procedures Section'!$A:$A,"SPT")</f>
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H11">
         <f>COUNTIF('Procedures Section'!$A:$A,"LPT")</f>
         <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K11">
         <f>COUNTIF('Procedures Section'!$A:$A,"FPT")</f>
         <v>10</v>
       </c>
       <c r="M11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N11">
         <f>COUNTIF('Procedures Section'!$A:$A,"General_Checks")</f>
@@ -5136,31 +5110,31 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>94</v>
@@ -5372,35 +5346,35 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B25">
         <f>COUNTIF('Tests Section'!$B:$B,B15)</f>
         <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E25">
         <f>COUNTIF('Tests Section'!$B:$B,C15)</f>
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H25">
         <f>COUNTIF('Tests Section'!$B:$B,D15)</f>
         <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K25">
         <f>COUNTIF('Tests Section'!$B:$B,E15)</f>
         <v>11</v>
       </c>
       <c r="M25" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N25">
         <f>COUNTIF('Tests Section'!$B:$B,F15)</f>
@@ -5413,10 +5387,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M342"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5460,13 +5434,13 @@
         <v>100</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>102</v>
@@ -5547,7 +5521,7 @@
         <v>50605000</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M4" s="5"/>
     </row>
@@ -5565,10 +5539,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -5580,7 +5554,7 @@
         <v>50701112</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M5" s="5"/>
     </row>
@@ -5598,10 +5572,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -5613,7 +5587,7 @@
         <v>50701012</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M6" s="5"/>
     </row>
@@ -5631,10 +5605,10 @@
         <v>14</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -5646,7 +5620,7 @@
         <v>40401000</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M7" s="5"/>
     </row>
@@ -5664,13 +5638,13 @@
         <v>31</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -5681,7 +5655,7 @@
         <v>50701147</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M8" s="5"/>
     </row>
@@ -5712,7 +5686,7 @@
         <v>50701009</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M9" s="5"/>
     </row>
@@ -5768,7 +5742,7 @@
         <v>30401005</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M11" s="5"/>
     </row>
@@ -5799,7 +5773,7 @@
         <v>30209000</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M12" s="5"/>
     </row>
@@ -5880,7 +5854,7 @@
         <v>50701187</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M15" s="5"/>
     </row>
@@ -5923,16 +5897,16 @@
         <v>16</v>
       </c>
       <c r="E17" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>274</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>277</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9">
@@ -5942,7 +5916,7 @@
         <v>50203000</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M17" s="5"/>
     </row>
@@ -5960,7 +5934,7 @@
         <v>200</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -5973,7 +5947,7 @@
         <v>10402014</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M18" s="5"/>
     </row>
@@ -5991,13 +5965,13 @@
         <v>17</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -6008,7 +5982,7 @@
         <v>50701018</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M19" s="5"/>
     </row>
@@ -6026,7 +6000,7 @@
         <v>23</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>108</v>
@@ -6041,7 +6015,7 @@
         <v>50701090</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M20" s="5"/>
     </row>
@@ -6059,7 +6033,7 @@
         <v>23</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>110</v>
@@ -6086,7 +6060,7 @@
         <v>23</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>112</v>
@@ -6101,7 +6075,7 @@
         <v>50701168</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M22" s="5"/>
     </row>
@@ -6136,7 +6110,7 @@
         <v>30206000</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M23" s="5"/>
     </row>
@@ -6171,7 +6145,7 @@
         <v>30402000</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M24" s="5"/>
     </row>
@@ -6206,7 +6180,7 @@
         <v>30401009</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M25" s="5"/>
     </row>
@@ -6270,7 +6244,7 @@
         <v>50701093</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M27" s="5"/>
     </row>
@@ -6334,7 +6308,7 @@
         <v>50701086</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M29" s="5"/>
     </row>
@@ -6398,7 +6372,7 @@
         <v>50701100</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M31" s="5"/>
     </row>
@@ -6433,7 +6407,7 @@
         <v>50701032</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M32" s="5"/>
     </row>
@@ -6468,7 +6442,7 @@
         <v>10401000</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M33" s="5"/>
     </row>
@@ -6503,7 +6477,7 @@
         <v>50701037</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M34" s="5"/>
     </row>
@@ -6567,7 +6541,7 @@
         <v>50701144</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M36" s="5"/>
     </row>
@@ -6635,7 +6609,7 @@
         <v>20301000</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M38" s="5"/>
     </row>
@@ -6653,13 +6627,13 @@
         <v>34</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
@@ -6670,7 +6644,7 @@
         <v>20302001</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M39" s="5"/>
     </row>
@@ -6688,13 +6662,13 @@
         <v>35</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -6717,16 +6691,16 @@
         <v>36</v>
       </c>
       <c r="E41" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="H41" s="9" t="s">
         <v>302</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>305</v>
       </c>
       <c r="I41" s="10"/>
       <c r="J41" s="9">
@@ -6736,7 +6710,7 @@
         <v>30207000</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M41" s="5"/>
     </row>
@@ -6754,16 +6728,16 @@
         <v>37</v>
       </c>
       <c r="E42" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="H42" s="9" t="s">
         <v>306</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>309</v>
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="9"/>
@@ -6785,13 +6759,13 @@
         <v>38</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
@@ -6802,7 +6776,7 @@
         <v>50701150</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M43" s="5"/>
     </row>
@@ -6865,10 +6839,10 @@
         <v>41</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
@@ -6880,7 +6854,7 @@
         <v>10402008</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M46" s="5"/>
     </row>
@@ -6898,10 +6872,10 @@
         <v>42</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -6913,7 +6887,7 @@
         <v>20302001</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M47" s="5"/>
     </row>
@@ -6952,7 +6926,7 @@
         <v>50701187</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M48" s="5"/>
     </row>
@@ -6991,7 +6965,7 @@
         <v>50701006</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M49" s="5"/>
     </row>
@@ -7009,13 +6983,13 @@
         <v>47</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
@@ -7026,7 +7000,7 @@
         <v>20502001</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M50" s="5"/>
     </row>
@@ -7044,10 +7018,10 @@
         <v>49</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
@@ -7059,7 +7033,7 @@
         <v>50701034</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M51" s="5"/>
     </row>
@@ -7077,13 +7051,13 @@
         <v>188</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
@@ -7094,7 +7068,7 @@
         <v>20501000</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M52" s="5"/>
     </row>
@@ -7112,13 +7086,13 @@
         <v>188</v>
       </c>
       <c r="E53" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="G53" s="10" t="s">
         <v>323</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>326</v>
       </c>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
@@ -7129,7 +7103,7 @@
         <v>10401002</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M53" s="5"/>
     </row>
@@ -7147,13 +7121,13 @@
         <v>188</v>
       </c>
       <c r="E54" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="F54" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="F54" s="10" t="s">
-        <v>327</v>
-      </c>
       <c r="G54" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
@@ -7164,7 +7138,7 @@
         <v>20205000</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M54" s="5"/>
     </row>
@@ -7182,13 +7156,13 @@
         <v>50</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
@@ -7199,7 +7173,7 @@
         <v>50701068</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M55" s="5"/>
     </row>
@@ -7220,7 +7194,7 @@
         <v>114</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -7244,10 +7218,10 @@
         <v>187</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
@@ -7259,7 +7233,7 @@
         <v>50701147</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M57" s="5"/>
     </row>
@@ -7277,7 +7251,7 @@
         <v>187</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
@@ -7290,7 +7264,7 @@
         <v>50701114</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M58" s="5"/>
     </row>
@@ -7308,7 +7282,7 @@
         <v>187</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
@@ -7321,7 +7295,7 @@
         <v>50701081</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M59" s="5"/>
     </row>
@@ -7339,16 +7313,16 @@
         <v>51</v>
       </c>
       <c r="E60" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="H60" s="9" t="s">
         <v>302</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>305</v>
       </c>
       <c r="I60" s="10"/>
       <c r="J60" s="9">
@@ -7358,7 +7332,7 @@
         <v>50701184</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M60" s="5"/>
     </row>
@@ -7376,16 +7350,16 @@
         <v>52</v>
       </c>
       <c r="E61" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="H61" s="9" t="s">
         <v>306</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>309</v>
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="9">
@@ -7395,7 +7369,7 @@
         <v>50701048</v>
       </c>
       <c r="L61" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M61" s="5"/>
     </row>
@@ -7413,10 +7387,10 @@
         <v>64</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
@@ -7440,10 +7414,10 @@
         <v>64</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
@@ -7455,7 +7429,7 @@
         <v>20401000</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M63" s="5"/>
     </row>
@@ -7484,7 +7458,7 @@
         <v>50401000</v>
       </c>
       <c r="L64" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M64" s="5"/>
     </row>
@@ -7513,7 +7487,7 @@
         <v>50701167</v>
       </c>
       <c r="L65" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M65" s="5"/>
     </row>
@@ -7542,7 +7516,7 @@
         <v>50701142</v>
       </c>
       <c r="L66" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M66" s="5"/>
     </row>
@@ -7560,7 +7534,7 @@
         <v>69</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F67" s="10" t="b">
         <v>1</v>
@@ -7575,7 +7549,7 @@
         <v>50701050</v>
       </c>
       <c r="L67" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M67" s="5"/>
     </row>
@@ -7593,7 +7567,7 @@
         <v>69</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F68" s="10" t="b">
         <v>1</v>
@@ -7608,7 +7582,7 @@
         <v>50502000</v>
       </c>
       <c r="L68" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M68" s="5"/>
     </row>
@@ -7626,7 +7600,7 @@
         <v>69</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F69" s="10" t="b">
         <v>1</v>
@@ -7641,7 +7615,7 @@
         <v>10504000</v>
       </c>
       <c r="L69" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M69" s="5"/>
     </row>
@@ -7659,10 +7633,10 @@
         <v>204</v>
       </c>
       <c r="E70" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="F70" s="10" t="s">
         <v>293</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>296</v>
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
@@ -7686,10 +7660,10 @@
         <v>204</v>
       </c>
       <c r="E71" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F71" s="10" t="s">
         <v>294</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>297</v>
       </c>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
@@ -7713,10 +7687,10 @@
         <v>204</v>
       </c>
       <c r="E72" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="F72" s="10" t="s">
         <v>295</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>298</v>
       </c>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
@@ -7740,7 +7714,7 @@
         <v>70</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F73" s="10" t="b">
         <v>1</v>
@@ -7755,7 +7729,7 @@
         <v>50301000</v>
       </c>
       <c r="L73" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M73" s="5"/>
     </row>
@@ -7773,7 +7747,7 @@
         <v>70</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F74" s="10" t="b">
         <v>1</v>
@@ -7788,7 +7762,7 @@
         <v>50701117</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M74" s="5"/>
     </row>
@@ -7806,7 +7780,7 @@
         <v>70</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F75" s="10" t="b">
         <v>1</v>
@@ -7821,7 +7795,7 @@
         <v>50701046</v>
       </c>
       <c r="L75" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M75" s="5"/>
     </row>
@@ -7839,10 +7813,10 @@
         <v>72</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
@@ -7854,7 +7828,7 @@
         <v>20307000</v>
       </c>
       <c r="L76" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M76" s="5"/>
     </row>
@@ -7872,10 +7846,10 @@
         <v>73</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
@@ -7887,7 +7861,7 @@
         <v>50701099</v>
       </c>
       <c r="L77" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M77" s="5"/>
     </row>
@@ -7905,10 +7879,10 @@
         <v>190</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
@@ -7920,7 +7894,7 @@
         <v>50701099</v>
       </c>
       <c r="L78" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M78" s="5"/>
     </row>
@@ -7984,10 +7958,10 @@
         <v>75</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
@@ -7999,7 +7973,7 @@
         <v>10401002</v>
       </c>
       <c r="L81" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M81" s="5"/>
     </row>
@@ -8017,10 +7991,10 @@
         <v>76</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
@@ -8032,7 +8006,7 @@
         <v>50701164</v>
       </c>
       <c r="L82" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M82" s="5"/>
     </row>
@@ -8050,10 +8024,10 @@
         <v>77</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
@@ -8065,7 +8039,7 @@
         <v>50701161</v>
       </c>
       <c r="L83" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M83" s="5"/>
     </row>
@@ -8083,13 +8057,13 @@
         <v>78</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
@@ -8100,7 +8074,7 @@
         <v>10301000</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M84" s="5"/>
     </row>
@@ -8118,16 +8092,16 @@
         <v>79</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I85" s="10"/>
       <c r="J85" s="9"/>
@@ -8149,16 +8123,16 @@
         <v>80</v>
       </c>
       <c r="E86" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="H86" s="9" t="s">
         <v>362</v>
-      </c>
-      <c r="F86" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>365</v>
       </c>
       <c r="I86" s="10"/>
       <c r="J86" s="9">
@@ -8168,7 +8142,7 @@
         <v>10402007</v>
       </c>
       <c r="L86" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M86" s="5"/>
     </row>
@@ -8186,16 +8160,16 @@
         <v>81</v>
       </c>
       <c r="E87" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="H87" s="9" t="s">
         <v>366</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>369</v>
       </c>
       <c r="I87" s="10"/>
       <c r="J87" s="9">
@@ -8205,7 +8179,7 @@
         <v>50701117</v>
       </c>
       <c r="L87" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M87" s="5"/>
     </row>
@@ -8223,10 +8197,10 @@
         <v>192</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
@@ -8238,7 +8212,7 @@
         <v>50701133</v>
       </c>
       <c r="L88" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M88" s="5"/>
     </row>
@@ -8256,7 +8230,7 @@
         <v>82</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
@@ -8292,7 +8266,7 @@
         <v>30401009</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M90" s="5"/>
     </row>
@@ -8310,10 +8284,10 @@
         <v>84</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
@@ -8325,7 +8299,7 @@
         <v>10303000</v>
       </c>
       <c r="L91" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M91" s="5"/>
     </row>
@@ -8343,10 +8317,10 @@
         <v>84</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
@@ -8358,7 +8332,7 @@
         <v>50701017</v>
       </c>
       <c r="L92" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M92" s="5"/>
     </row>
@@ -8376,10 +8350,10 @@
         <v>84</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
@@ -8403,10 +8377,10 @@
         <v>84</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
@@ -8430,10 +8404,10 @@
         <v>84</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
@@ -8445,7 +8419,7 @@
         <v>20301000</v>
       </c>
       <c r="L95" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M95" s="5"/>
     </row>
@@ -8463,10 +8437,10 @@
         <v>84</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
@@ -8490,10 +8464,10 @@
         <v>84</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
@@ -8505,7 +8479,7 @@
         <v>10201000</v>
       </c>
       <c r="L97" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M97" s="5"/>
     </row>
@@ -8523,10 +8497,10 @@
         <v>84</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
@@ -8538,7 +8512,7 @@
         <v>50701140</v>
       </c>
       <c r="L98" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M98" s="5"/>
     </row>
@@ -8556,10 +8530,10 @@
         <v>84</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
@@ -8571,7 +8545,7 @@
         <v>10402001</v>
       </c>
       <c r="L99" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M99" s="5"/>
     </row>
@@ -8589,10 +8563,10 @@
         <v>84</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
@@ -8616,10 +8590,10 @@
         <v>85</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
@@ -8631,7 +8605,7 @@
         <v>30401008</v>
       </c>
       <c r="L101" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M101" s="5"/>
     </row>
@@ -8649,10 +8623,10 @@
         <v>86</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
@@ -8664,7 +8638,7 @@
         <v>50701178</v>
       </c>
       <c r="L102" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M102" s="5"/>
     </row>
@@ -8728,13 +8702,13 @@
         <v>90</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H105" s="10"/>
       <c r="I105" s="10"/>
@@ -8745,7 +8719,7 @@
         <v>20602000</v>
       </c>
       <c r="L105" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M105" s="5"/>
     </row>
@@ -8763,13 +8737,13 @@
         <v>91</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
@@ -8780,7 +8754,7 @@
         <v>50701139</v>
       </c>
       <c r="L106" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M106" s="5"/>
     </row>
@@ -8798,16 +8772,16 @@
         <v>92</v>
       </c>
       <c r="E107" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="H107" s="9" t="s">
         <v>402</v>
-      </c>
-      <c r="F107" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="G107" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="H107" s="9" t="s">
-        <v>405</v>
       </c>
       <c r="I107" s="10"/>
       <c r="J107" s="9">
@@ -8817,7 +8791,7 @@
         <v>50701121</v>
       </c>
       <c r="L107" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M107" s="5"/>
     </row>
@@ -8835,13 +8809,13 @@
         <v>93</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H108" s="10"/>
       <c r="I108" s="10"/>
@@ -8852,7 +8826,7 @@
         <v>20403000</v>
       </c>
       <c r="L108" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M108" s="5"/>
     </row>
@@ -8916,7 +8890,7 @@
         <v>50401000</v>
       </c>
       <c r="L110" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M110" s="5"/>
     </row>
@@ -8934,10 +8908,10 @@
         <v>198</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
@@ -8949,7 +8923,7 @@
         <v>50701131</v>
       </c>
       <c r="L111" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M111" s="5"/>
     </row>
@@ -8967,10 +8941,10 @@
         <v>198</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
@@ -8994,13 +8968,13 @@
         <v>196</v>
       </c>
       <c r="E113" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F113" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="F113" s="10" t="s">
-        <v>376</v>
-      </c>
       <c r="G113" s="10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H113" s="10"/>
       <c r="I113" s="10"/>
@@ -9023,13 +8997,13 @@
         <v>95</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H114" s="10"/>
       <c r="I114" s="10"/>
@@ -9040,7 +9014,7 @@
         <v>10402002</v>
       </c>
       <c r="L114" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M114" s="5"/>
     </row>
@@ -9101,10 +9075,10 @@
         <v>182</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F117" s="10"/>
       <c r="G117" s="10"/>
@@ -9117,7 +9091,7 @@
         <v>50701182</v>
       </c>
       <c r="L117" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M117" s="5"/>
     </row>
@@ -9132,7 +9106,7 @@
         <v>182</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E118" s="10"/>
       <c r="F118" s="10"/>
@@ -9146,7 +9120,7 @@
         <v>50701104</v>
       </c>
       <c r="L118" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M118" s="5"/>
     </row>
@@ -9161,7 +9135,7 @@
         <v>182</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E119" s="10"/>
       <c r="F119" s="10"/>
@@ -9184,10 +9158,10 @@
         <v>182</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
@@ -9200,7 +9174,7 @@
         <v>40303000</v>
       </c>
       <c r="L120" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M120" s="5"/>
     </row>
@@ -9215,13 +9189,13 @@
         <v>182</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
@@ -9233,7 +9207,7 @@
         <v>50701092</v>
       </c>
       <c r="L121" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M121" s="5"/>
     </row>
@@ -9248,16 +9222,16 @@
         <v>182</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H122" s="10"/>
       <c r="I122" s="10"/>
@@ -9268,7 +9242,7 @@
         <v>50701025</v>
       </c>
       <c r="L122" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M122" s="5"/>
     </row>
@@ -9283,16 +9257,16 @@
         <v>182</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H123" s="10"/>
       <c r="I123" s="10"/>
@@ -9303,7 +9277,7 @@
         <v>50701146</v>
       </c>
       <c r="L123" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M123" s="5"/>
     </row>
@@ -9318,10 +9292,10 @@
         <v>182</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
@@ -9334,7 +9308,7 @@
         <v>30209000</v>
       </c>
       <c r="L124" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M124" s="5"/>
     </row>
@@ -9352,10 +9326,10 @@
         <v>20</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G125" s="10"/>
       <c r="H125" s="10"/>
@@ -9367,7 +9341,7 @@
         <v>50110000</v>
       </c>
       <c r="L125" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M125" s="5"/>
     </row>
@@ -9385,10 +9359,10 @@
         <v>21</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
@@ -9412,10 +9386,10 @@
         <v>22</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
@@ -9427,7 +9401,7 @@
         <v>50701170</v>
       </c>
       <c r="L127" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M127" s="5"/>
     </row>
@@ -9445,13 +9419,13 @@
         <v>26</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H128" s="10"/>
       <c r="I128" s="10"/>
@@ -9462,7 +9436,7 @@
         <v>40402000</v>
       </c>
       <c r="L128" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M128" s="5"/>
     </row>
@@ -9480,16 +9454,16 @@
         <v>27</v>
       </c>
       <c r="E129" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="G129" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H129" s="9" t="s">
         <v>436</v>
-      </c>
-      <c r="F129" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="G129" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="H129" s="9" t="s">
-        <v>439</v>
       </c>
       <c r="I129" s="10"/>
       <c r="J129" s="9">
@@ -9499,7 +9473,7 @@
         <v>50701088</v>
       </c>
       <c r="L129" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M129" s="5"/>
     </row>
@@ -9517,10 +9491,10 @@
         <v>28</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
@@ -9532,7 +9506,7 @@
         <v>20306000</v>
       </c>
       <c r="L130" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M130" s="5"/>
     </row>
@@ -9550,16 +9524,16 @@
         <v>29</v>
       </c>
       <c r="E131" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="G131" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="H131" s="9" t="s">
         <v>442</v>
-      </c>
-      <c r="F131" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="G131" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="H131" s="9" t="s">
-        <v>445</v>
       </c>
       <c r="I131" s="10"/>
       <c r="J131" s="9">
@@ -9569,7 +9543,7 @@
         <v>20603000</v>
       </c>
       <c r="L131" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M131" s="5"/>
     </row>
@@ -9587,16 +9561,16 @@
         <v>30</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="I132" s="10"/>
       <c r="J132" s="9">
@@ -9606,7 +9580,7 @@
         <v>50701128</v>
       </c>
       <c r="L132" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M132" s="5"/>
     </row>
@@ -9624,13 +9598,13 @@
         <v>104</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H133" s="10"/>
       <c r="I133" s="10"/>
@@ -9641,7 +9615,7 @@
         <v>50701081</v>
       </c>
       <c r="L133" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M133" s="5"/>
     </row>
@@ -9659,16 +9633,16 @@
         <v>44</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="I134" s="10"/>
       <c r="J134" s="9">
@@ -9678,7 +9652,7 @@
         <v>50701127</v>
       </c>
       <c r="L134" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M134" s="5"/>
     </row>
@@ -9696,13 +9670,13 @@
         <v>45</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H135" s="10"/>
       <c r="I135" s="10"/>
@@ -9713,7 +9687,7 @@
         <v>50701058</v>
       </c>
       <c r="L135" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M135" s="5"/>
     </row>
@@ -9731,10 +9705,10 @@
         <v>189</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G136" s="10"/>
       <c r="H136" s="10"/>
@@ -9746,7 +9720,7 @@
         <v>10302006</v>
       </c>
       <c r="L136" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M136" s="5"/>
     </row>
@@ -9764,10 +9738,10 @@
         <v>54</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G137" s="10"/>
       <c r="H137" s="10"/>
@@ -9791,10 +9765,10 @@
         <v>55</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G138" s="10"/>
       <c r="H138" s="10"/>
@@ -9806,7 +9780,7 @@
         <v>50701098</v>
       </c>
       <c r="L138" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M138" s="5"/>
     </row>
@@ -9824,16 +9798,16 @@
         <v>57</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="I139" s="10"/>
       <c r="J139" s="9"/>
@@ -9855,10 +9829,10 @@
         <v>58</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G140" s="10"/>
       <c r="H140" s="10"/>
@@ -9870,7 +9844,7 @@
         <v>50701050</v>
       </c>
       <c r="L140" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M140" s="5"/>
     </row>
@@ -9888,10 +9862,10 @@
         <v>58</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G141" s="10"/>
       <c r="H141" s="10"/>
@@ -9903,7 +9877,7 @@
         <v>50605000</v>
       </c>
       <c r="L141" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M141" s="5"/>
     </row>
@@ -9932,7 +9906,7 @@
         <v>50701101</v>
       </c>
       <c r="L142" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M142" s="5"/>
     </row>
@@ -9950,10 +9924,10 @@
         <v>60</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G143" s="10"/>
       <c r="H143" s="10"/>
@@ -9965,7 +9939,7 @@
         <v>50701060</v>
       </c>
       <c r="L143" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M143" s="5"/>
     </row>
@@ -9983,13 +9957,13 @@
         <v>61</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H144" s="10"/>
       <c r="I144" s="10"/>
@@ -10000,7 +9974,7 @@
         <v>50701115</v>
       </c>
       <c r="L144" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M144" s="5"/>
     </row>
@@ -10018,13 +9992,13 @@
         <v>62</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G145" s="10" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H145" s="10"/>
       <c r="I145" s="10"/>
@@ -10035,7 +10009,7 @@
         <v>50701187</v>
       </c>
       <c r="L145" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M145" s="5"/>
     </row>
@@ -10066,7 +10040,7 @@
         <v>50701141</v>
       </c>
       <c r="L146" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M146" s="5"/>
     </row>
@@ -10097,7 +10071,7 @@
         <v>50701001</v>
       </c>
       <c r="L147" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M147" s="5"/>
     </row>
@@ -10128,7 +10102,7 @@
         <v>50701084</v>
       </c>
       <c r="L148" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M148" s="5"/>
     </row>
@@ -10171,7 +10145,7 @@
         <v>199</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F150" s="10"/>
       <c r="G150" s="10"/>
@@ -10184,7 +10158,7 @@
         <v>50109000</v>
       </c>
       <c r="L150" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M150" s="5"/>
     </row>
@@ -10215,7 +10189,7 @@
         <v>30206000</v>
       </c>
       <c r="L151" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M151" s="5"/>
     </row>
@@ -10246,7 +10220,7 @@
         <v>30401008</v>
       </c>
       <c r="L152" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M152" s="5"/>
     </row>
@@ -10277,7 +10251,7 @@
         <v>50701008</v>
       </c>
       <c r="L153" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M153" s="5"/>
     </row>
@@ -10308,7 +10282,7 @@
         <v>10504000</v>
       </c>
       <c r="L154" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M154" s="5"/>
     </row>
@@ -10339,7 +10313,7 @@
         <v>50104000</v>
       </c>
       <c r="L155" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M155" s="5"/>
     </row>
@@ -10370,7 +10344,7 @@
         <v>50701153</v>
       </c>
       <c r="L156" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M156" s="5"/>
     </row>
@@ -10401,7 +10375,7 @@
         <v>20501000</v>
       </c>
       <c r="L157" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M157" s="5"/>
     </row>
@@ -10432,7 +10406,7 @@
         <v>50701032</v>
       </c>
       <c r="L158" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M158" s="5"/>
     </row>
@@ -10463,7 +10437,7 @@
         <v>30401006</v>
       </c>
       <c r="L159" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M159" s="5"/>
     </row>
@@ -10494,7 +10468,7 @@
         <v>10302005</v>
       </c>
       <c r="L160" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M160" s="5"/>
     </row>
@@ -10525,7 +10499,7 @@
         <v>10502000</v>
       </c>
       <c r="L161" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M161" s="5"/>
     </row>
@@ -10556,7 +10530,7 @@
         <v>50701042</v>
       </c>
       <c r="L162" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M162" s="5"/>
     </row>
@@ -10587,7 +10561,7 @@
         <v>50701039</v>
       </c>
       <c r="L163" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M163" s="5"/>
     </row>
@@ -10618,7 +10592,7 @@
         <v>50605000</v>
       </c>
       <c r="L164" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M164" s="5"/>
     </row>
@@ -10636,7 +10610,7 @@
         <v>199</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F165" s="10"/>
       <c r="G165" s="10"/>
@@ -10649,7 +10623,7 @@
         <v>50701126</v>
       </c>
       <c r="L165" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M165" s="5"/>
     </row>
@@ -10680,7 +10654,7 @@
         <v>20503001</v>
       </c>
       <c r="L166" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M166" s="5"/>
     </row>
@@ -10736,7 +10710,7 @@
         <v>30205000</v>
       </c>
       <c r="L168" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M168" s="5"/>
     </row>
@@ -10792,7 +10766,7 @@
         <v>50701096</v>
       </c>
       <c r="L170" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M170" s="5"/>
     </row>
@@ -10810,7 +10784,7 @@
         <v>199</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F171" s="10"/>
       <c r="G171" s="10"/>
@@ -10835,7 +10809,7 @@
         <v>199</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F172" s="10"/>
       <c r="G172" s="10"/>
@@ -10848,7 +10822,7 @@
         <v>40302000</v>
       </c>
       <c r="L172" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M172" s="5"/>
     </row>
@@ -10866,7 +10840,7 @@
         <v>199</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F173" s="10"/>
       <c r="G173" s="10"/>
@@ -10879,7 +10853,7 @@
         <v>50701010</v>
       </c>
       <c r="L173" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M173" s="5"/>
     </row>
@@ -10897,7 +10871,7 @@
         <v>199</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F174" s="10"/>
       <c r="G174" s="10"/>
@@ -10922,7 +10896,7 @@
         <v>199</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F175" s="10"/>
       <c r="G175" s="10"/>
@@ -10935,7 +10909,7 @@
         <v>10203001</v>
       </c>
       <c r="L175" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M175" s="5"/>
     </row>
@@ -10966,7 +10940,7 @@
         <v>50303000</v>
       </c>
       <c r="L176" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M176" s="5"/>
     </row>
@@ -10997,7 +10971,7 @@
         <v>50701137</v>
       </c>
       <c r="L177" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M177" s="5"/>
     </row>
@@ -11028,7 +11002,7 @@
         <v>50701170</v>
       </c>
       <c r="L178" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M178" s="5"/>
     </row>
@@ -11059,7 +11033,7 @@
         <v>50701166</v>
       </c>
       <c r="L179" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M179" s="5"/>
     </row>
@@ -11077,7 +11051,7 @@
         <v>199</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F180" s="10"/>
       <c r="G180" s="10"/>
@@ -11102,7 +11076,7 @@
         <v>199</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F181" s="10"/>
       <c r="G181" s="10"/>
@@ -11115,7 +11089,7 @@
         <v>50701150</v>
       </c>
       <c r="L181" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M181" s="5"/>
     </row>
@@ -11133,7 +11107,7 @@
         <v>199</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F182" s="10"/>
       <c r="G182" s="10"/>
@@ -11158,7 +11132,7 @@
         <v>199</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F183" s="10"/>
       <c r="G183" s="10"/>
@@ -11171,7 +11145,7 @@
         <v>50701073</v>
       </c>
       <c r="L183" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M183" s="5"/>
     </row>
@@ -11189,7 +11163,7 @@
         <v>199</v>
       </c>
       <c r="E184" s="10" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F184" s="10"/>
       <c r="G184" s="10"/>
@@ -11202,7 +11176,7 @@
         <v>10301000</v>
       </c>
       <c r="L184" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M184" s="5"/>
     </row>
@@ -11220,7 +11194,7 @@
         <v>199</v>
       </c>
       <c r="E185" s="10" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F185" s="10"/>
       <c r="G185" s="10"/>
@@ -11233,7 +11207,7 @@
         <v>30401004</v>
       </c>
       <c r="L185" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M185" s="5"/>
     </row>
@@ -11251,7 +11225,7 @@
         <v>199</v>
       </c>
       <c r="E186" s="10" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F186" s="10"/>
       <c r="G186" s="10"/>
@@ -11276,7 +11250,7 @@
         <v>199</v>
       </c>
       <c r="E187" s="10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F187" s="10"/>
       <c r="G187" s="10"/>
@@ -11289,7 +11263,7 @@
         <v>50201000</v>
       </c>
       <c r="L187" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M187" s="5"/>
     </row>
@@ -11307,7 +11281,7 @@
         <v>199</v>
       </c>
       <c r="E188" s="10" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F188" s="10"/>
       <c r="G188" s="10"/>
@@ -11332,7 +11306,7 @@
         <v>199</v>
       </c>
       <c r="E189" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F189" s="10"/>
       <c r="G189" s="10"/>
@@ -11345,7 +11319,7 @@
         <v>50701071</v>
       </c>
       <c r="L189" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M189" s="5"/>
     </row>
@@ -11363,7 +11337,7 @@
         <v>199</v>
       </c>
       <c r="E190" s="10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F190" s="10"/>
       <c r="G190" s="10"/>
@@ -11376,7 +11350,7 @@
         <v>50701023</v>
       </c>
       <c r="L190" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M190" s="5"/>
     </row>
@@ -11394,7 +11368,7 @@
         <v>199</v>
       </c>
       <c r="E191" s="10" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F191" s="10"/>
       <c r="G191" s="10"/>
@@ -11407,7 +11381,7 @@
         <v>30401006</v>
       </c>
       <c r="L191" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M191" s="5"/>
     </row>
@@ -11425,7 +11399,7 @@
         <v>199</v>
       </c>
       <c r="E192" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F192" s="10"/>
       <c r="G192" s="10"/>
@@ -11438,7 +11412,7 @@
         <v>50701144</v>
       </c>
       <c r="L192" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M192" s="5"/>
     </row>
@@ -11456,7 +11430,7 @@
         <v>199</v>
       </c>
       <c r="E193" s="10" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F193" s="10"/>
       <c r="G193" s="10"/>
@@ -11481,7 +11455,7 @@
         <v>199</v>
       </c>
       <c r="E194" s="10" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F194" s="10"/>
       <c r="G194" s="10"/>
@@ -11494,7 +11468,7 @@
         <v>50701062</v>
       </c>
       <c r="L194" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M194" s="5"/>
     </row>
@@ -11512,7 +11486,7 @@
         <v>199</v>
       </c>
       <c r="E195" s="10" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F195" s="10"/>
       <c r="G195" s="10"/>
@@ -11525,7 +11499,7 @@
         <v>50701027</v>
       </c>
       <c r="L195" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M195" s="5"/>
     </row>
@@ -11543,7 +11517,7 @@
         <v>199</v>
       </c>
       <c r="E196" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F196" s="10"/>
       <c r="G196" s="10"/>
@@ -11556,7 +11530,7 @@
         <v>10502000</v>
       </c>
       <c r="L196" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M196" s="5"/>
     </row>
@@ -11574,7 +11548,7 @@
         <v>199</v>
       </c>
       <c r="E197" s="10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F197" s="10"/>
       <c r="G197" s="10"/>
@@ -11587,7 +11561,7 @@
         <v>50701009</v>
       </c>
       <c r="L197" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M197" s="5"/>
     </row>
@@ -11605,7 +11579,7 @@
         <v>199</v>
       </c>
       <c r="E198" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F198" s="10"/>
       <c r="G198" s="10"/>
@@ -11630,7 +11604,7 @@
         <v>199</v>
       </c>
       <c r="E199" s="10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F199" s="10"/>
       <c r="G199" s="10"/>
@@ -11643,7 +11617,7 @@
         <v>50701055</v>
       </c>
       <c r="L199" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M199" s="5"/>
     </row>
@@ -11661,7 +11635,7 @@
         <v>199</v>
       </c>
       <c r="E200" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F200" s="10"/>
       <c r="G200" s="10"/>
@@ -11674,7 +11648,7 @@
         <v>50701113</v>
       </c>
       <c r="L200" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M200" s="5"/>
     </row>
@@ -11692,7 +11666,7 @@
         <v>199</v>
       </c>
       <c r="E201" s="10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F201" s="10"/>
       <c r="G201" s="10"/>
@@ -11705,7 +11679,7 @@
         <v>20203000</v>
       </c>
       <c r="L201" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M201" s="5"/>
     </row>
@@ -11723,7 +11697,7 @@
         <v>199</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F202" s="10"/>
       <c r="G202" s="10"/>
@@ -11736,7 +11710,7 @@
         <v>10402002</v>
       </c>
       <c r="L202" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M202" s="5"/>
     </row>
@@ -11754,7 +11728,7 @@
         <v>199</v>
       </c>
       <c r="E203" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F203" s="10"/>
       <c r="G203" s="10"/>
@@ -11767,7 +11741,7 @@
         <v>50701129</v>
       </c>
       <c r="L203" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M203" s="5"/>
     </row>
@@ -11785,7 +11759,7 @@
         <v>199</v>
       </c>
       <c r="E204" s="10" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F204" s="10"/>
       <c r="G204" s="10"/>
@@ -11798,7 +11772,7 @@
         <v>50701029</v>
       </c>
       <c r="L204" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M204" s="5"/>
     </row>
@@ -11816,7 +11790,7 @@
         <v>199</v>
       </c>
       <c r="E205" s="10" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F205" s="10"/>
       <c r="G205" s="10"/>
@@ -11829,7 +11803,7 @@
         <v>50701183</v>
       </c>
       <c r="L205" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M205" s="5"/>
     </row>
@@ -11847,7 +11821,7 @@
         <v>199</v>
       </c>
       <c r="E206" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F206" s="10"/>
       <c r="G206" s="10"/>
@@ -11872,7 +11846,7 @@
         <v>199</v>
       </c>
       <c r="E207" s="10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F207" s="10"/>
       <c r="G207" s="10"/>
@@ -11885,7 +11859,7 @@
         <v>50106000</v>
       </c>
       <c r="L207" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M207" s="5"/>
     </row>
@@ -11903,7 +11877,7 @@
         <v>199</v>
       </c>
       <c r="E208" s="10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F208" s="10"/>
       <c r="G208" s="10"/>
@@ -11916,7 +11890,7 @@
         <v>50701157</v>
       </c>
       <c r="L208" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M208" s="5"/>
     </row>
@@ -11934,7 +11908,7 @@
         <v>199</v>
       </c>
       <c r="E209" s="10" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F209" s="10"/>
       <c r="G209" s="10"/>
@@ -11947,7 +11921,7 @@
         <v>50701136</v>
       </c>
       <c r="L209" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M209" s="5"/>
     </row>
@@ -11965,7 +11939,7 @@
         <v>199</v>
       </c>
       <c r="E210" s="10" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F210" s="10"/>
       <c r="G210" s="10"/>
@@ -11990,7 +11964,7 @@
         <v>199</v>
       </c>
       <c r="E211" s="10" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F211" s="10"/>
       <c r="G211" s="10"/>
@@ -12003,7 +11977,7 @@
         <v>50701047</v>
       </c>
       <c r="L211" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M211" s="5"/>
     </row>
@@ -12021,7 +11995,7 @@
         <v>199</v>
       </c>
       <c r="E212" s="10" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F212" s="10"/>
       <c r="G212" s="10"/>
@@ -12034,7 +12008,7 @@
         <v>50701002</v>
       </c>
       <c r="L212" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M212" s="5"/>
     </row>
@@ -12052,7 +12026,7 @@
         <v>199</v>
       </c>
       <c r="E213" s="10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F213" s="10"/>
       <c r="G213" s="10"/>
@@ -12077,7 +12051,7 @@
         <v>199</v>
       </c>
       <c r="E214" s="10" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F214" s="10"/>
       <c r="G214" s="10"/>
@@ -12090,7 +12064,7 @@
         <v>50701098</v>
       </c>
       <c r="L214" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M214" s="5"/>
     </row>
@@ -12108,7 +12082,7 @@
         <v>199</v>
       </c>
       <c r="E215" s="10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F215" s="10"/>
       <c r="G215" s="10"/>
@@ -12121,7 +12095,7 @@
         <v>50701040</v>
       </c>
       <c r="L215" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M215" s="5"/>
     </row>
@@ -12139,7 +12113,7 @@
         <v>199</v>
       </c>
       <c r="E216" s="10" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F216" s="10"/>
       <c r="G216" s="10"/>
@@ -12152,7 +12126,7 @@
         <v>10402003</v>
       </c>
       <c r="L216" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M216" s="5"/>
     </row>
@@ -12170,7 +12144,7 @@
         <v>199</v>
       </c>
       <c r="E217" s="10" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F217" s="10"/>
       <c r="G217" s="10"/>
@@ -12195,7 +12169,7 @@
         <v>199</v>
       </c>
       <c r="E218" s="10" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F218" s="10"/>
       <c r="G218" s="10"/>
@@ -12208,7 +12182,7 @@
         <v>30202000</v>
       </c>
       <c r="L218" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M218" s="5"/>
     </row>
@@ -12226,7 +12200,7 @@
         <v>199</v>
       </c>
       <c r="E219" s="10" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F219" s="10"/>
       <c r="G219" s="10"/>
@@ -12239,7 +12213,7 @@
         <v>50106000</v>
       </c>
       <c r="L219" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M219" s="5"/>
     </row>
@@ -12257,7 +12231,7 @@
         <v>199</v>
       </c>
       <c r="E220" s="10" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F220" s="10"/>
       <c r="G220" s="10"/>
@@ -12270,7 +12244,7 @@
         <v>50701028</v>
       </c>
       <c r="L220" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M220" s="5"/>
     </row>
@@ -12288,7 +12262,7 @@
         <v>199</v>
       </c>
       <c r="E221" s="10" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F221" s="10"/>
       <c r="G221" s="10"/>
@@ -12301,7 +12275,7 @@
         <v>50701163</v>
       </c>
       <c r="L221" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M221" s="5"/>
     </row>
@@ -12319,7 +12293,7 @@
         <v>199</v>
       </c>
       <c r="E222" s="10" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F222" s="10"/>
       <c r="G222" s="10"/>
@@ -12332,7 +12306,7 @@
         <v>10305000</v>
       </c>
       <c r="L222" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M222" s="5"/>
     </row>
@@ -12350,7 +12324,7 @@
         <v>199</v>
       </c>
       <c r="E223" s="10" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F223" s="10"/>
       <c r="G223" s="10"/>
@@ -12363,7 +12337,7 @@
         <v>50701133</v>
       </c>
       <c r="L223" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M223" s="5"/>
     </row>
@@ -12381,7 +12355,7 @@
         <v>199</v>
       </c>
       <c r="E224" s="10" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F224" s="10"/>
       <c r="G224" s="10"/>
@@ -12394,7 +12368,7 @@
         <v>50701057</v>
       </c>
       <c r="L224" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M224" s="5"/>
     </row>
@@ -12412,7 +12386,7 @@
         <v>199</v>
       </c>
       <c r="E225" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F225" s="10"/>
       <c r="G225" s="10"/>
@@ -12425,7 +12399,7 @@
         <v>50701089</v>
       </c>
       <c r="L225" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M225" s="5"/>
     </row>
@@ -12443,7 +12417,7 @@
         <v>199</v>
       </c>
       <c r="E226" s="10" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F226" s="10"/>
       <c r="G226" s="10"/>
@@ -12456,7 +12430,7 @@
         <v>10202000</v>
       </c>
       <c r="L226" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M226" s="5"/>
     </row>
@@ -12474,7 +12448,7 @@
         <v>199</v>
       </c>
       <c r="E227" s="10" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F227" s="10"/>
       <c r="G227" s="10"/>
@@ -12487,7 +12461,7 @@
         <v>50701161</v>
       </c>
       <c r="L227" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M227" s="5"/>
     </row>
@@ -12505,7 +12479,7 @@
         <v>199</v>
       </c>
       <c r="E228" s="10" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F228" s="10"/>
       <c r="G228" s="10"/>
@@ -12530,7 +12504,7 @@
         <v>199</v>
       </c>
       <c r="E229" s="10" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F229" s="10"/>
       <c r="G229" s="10"/>
@@ -12543,7 +12517,7 @@
         <v>50701019</v>
       </c>
       <c r="L229" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M229" s="5"/>
     </row>
@@ -12561,7 +12535,7 @@
         <v>199</v>
       </c>
       <c r="E230" s="10" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F230" s="10"/>
       <c r="G230" s="10"/>
@@ -12574,7 +12548,7 @@
         <v>50701025</v>
       </c>
       <c r="L230" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M230" s="5"/>
     </row>
@@ -12592,7 +12566,7 @@
         <v>199</v>
       </c>
       <c r="E231" s="10" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F231" s="10"/>
       <c r="G231" s="10"/>
@@ -12605,7 +12579,7 @@
         <v>10402014</v>
       </c>
       <c r="L231" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M231" s="5"/>
     </row>
@@ -12623,7 +12597,7 @@
         <v>199</v>
       </c>
       <c r="E232" s="10" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F232" s="10"/>
       <c r="G232" s="10"/>
@@ -12636,7 +12610,7 @@
         <v>20302002</v>
       </c>
       <c r="L232" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M232" s="5"/>
     </row>
@@ -12654,7 +12628,7 @@
         <v>199</v>
       </c>
       <c r="E233" s="10" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F233" s="10"/>
       <c r="G233" s="10"/>
@@ -12667,7 +12641,7 @@
         <v>50701042</v>
       </c>
       <c r="L233" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M233" s="5"/>
     </row>
@@ -12685,7 +12659,7 @@
         <v>199</v>
       </c>
       <c r="E234" s="10" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F234" s="10"/>
       <c r="G234" s="10"/>
@@ -12698,7 +12672,7 @@
         <v>50103000</v>
       </c>
       <c r="L234" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M234" s="5"/>
     </row>
@@ -12716,7 +12690,7 @@
         <v>199</v>
       </c>
       <c r="E235" s="10" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F235" s="10"/>
       <c r="G235" s="10"/>
@@ -12729,7 +12703,7 @@
         <v>10302006</v>
       </c>
       <c r="L235" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M235" s="5"/>
     </row>
@@ -12747,7 +12721,7 @@
         <v>199</v>
       </c>
       <c r="E236" s="10" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F236" s="10"/>
       <c r="G236" s="10"/>
@@ -12760,7 +12734,7 @@
         <v>50701113</v>
       </c>
       <c r="L236" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M236" s="5"/>
     </row>
@@ -12778,7 +12752,7 @@
         <v>199</v>
       </c>
       <c r="E237" s="10" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F237" s="10"/>
       <c r="G237" s="10"/>
@@ -12791,7 +12765,7 @@
         <v>50701120</v>
       </c>
       <c r="L237" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M237" s="5"/>
     </row>
@@ -12809,7 +12783,7 @@
         <v>199</v>
       </c>
       <c r="E238" s="10" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F238" s="10"/>
       <c r="G238" s="10"/>
@@ -12822,7 +12796,7 @@
         <v>50701065</v>
       </c>
       <c r="L238" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M238" s="5"/>
     </row>
@@ -12840,7 +12814,7 @@
         <v>199</v>
       </c>
       <c r="E239" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F239" s="10"/>
       <c r="G239" s="10"/>
@@ -12853,7 +12827,7 @@
         <v>20201000</v>
       </c>
       <c r="L239" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M239" s="5"/>
     </row>
@@ -12871,7 +12845,7 @@
         <v>199</v>
       </c>
       <c r="E240" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F240" s="10"/>
       <c r="G240" s="10"/>
@@ -12884,7 +12858,7 @@
         <v>30401009</v>
       </c>
       <c r="L240" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M240" s="5"/>
     </row>
@@ -12902,7 +12876,7 @@
         <v>199</v>
       </c>
       <c r="E241" s="10" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F241" s="10"/>
       <c r="G241" s="10"/>
@@ -12915,7 +12889,7 @@
         <v>50301000</v>
       </c>
       <c r="L241" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M241" s="5"/>
     </row>
@@ -12933,7 +12907,7 @@
         <v>199</v>
       </c>
       <c r="E242" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F242" s="10"/>
       <c r="G242" s="10"/>
@@ -12958,7 +12932,7 @@
         <v>199</v>
       </c>
       <c r="E243" s="10" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F243" s="10"/>
       <c r="G243" s="10"/>
@@ -12971,7 +12945,7 @@
         <v>50701048</v>
       </c>
       <c r="L243" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M243" s="5"/>
     </row>
@@ -12989,7 +12963,7 @@
         <v>199</v>
       </c>
       <c r="E244" s="10" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F244" s="10"/>
       <c r="G244" s="10"/>
@@ -13014,7 +12988,7 @@
         <v>199</v>
       </c>
       <c r="E245" s="10" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F245" s="10"/>
       <c r="G245" s="10"/>
@@ -13027,7 +13001,7 @@
         <v>50701028</v>
       </c>
       <c r="L245" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M245" s="5"/>
     </row>
@@ -13045,7 +13019,7 @@
         <v>199</v>
       </c>
       <c r="E246" s="10" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F246" s="10"/>
       <c r="G246" s="10"/>
@@ -13058,7 +13032,7 @@
         <v>50701110</v>
       </c>
       <c r="L246" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M246" s="5"/>
     </row>
@@ -13076,7 +13050,7 @@
         <v>199</v>
       </c>
       <c r="E247" s="10" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F247" s="10"/>
       <c r="G247" s="10"/>
@@ -13089,7 +13063,7 @@
         <v>50701026</v>
       </c>
       <c r="L247" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M247" s="5"/>
     </row>
@@ -13107,7 +13081,7 @@
         <v>199</v>
       </c>
       <c r="E248" s="10" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F248" s="10"/>
       <c r="G248" s="10"/>
@@ -13120,7 +13094,7 @@
         <v>50701048</v>
       </c>
       <c r="L248" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M248" s="5"/>
     </row>
@@ -13138,7 +13112,7 @@
         <v>199</v>
       </c>
       <c r="E249" s="10" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F249" s="10"/>
       <c r="G249" s="10"/>
@@ -13151,7 +13125,7 @@
         <v>10402004</v>
       </c>
       <c r="L249" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M249" s="5"/>
     </row>
@@ -13169,7 +13143,7 @@
         <v>199</v>
       </c>
       <c r="E250" s="10" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F250" s="10"/>
       <c r="G250" s="10"/>
@@ -13182,7 +13156,7 @@
         <v>20602000</v>
       </c>
       <c r="L250" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M250" s="5"/>
     </row>
@@ -13200,7 +13174,7 @@
         <v>199</v>
       </c>
       <c r="E251" s="10" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F251" s="10"/>
       <c r="G251" s="10"/>
@@ -13213,7 +13187,7 @@
         <v>10402014</v>
       </c>
       <c r="L251" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M251" s="5"/>
     </row>
@@ -13231,7 +13205,7 @@
         <v>199</v>
       </c>
       <c r="E252" s="10" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F252" s="10"/>
       <c r="G252" s="10"/>
@@ -13244,7 +13218,7 @@
         <v>40301000</v>
       </c>
       <c r="L252" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M252" s="5"/>
     </row>
@@ -13262,7 +13236,7 @@
         <v>199</v>
       </c>
       <c r="E253" s="10" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F253" s="10"/>
       <c r="G253" s="10"/>
@@ -13275,7 +13249,7 @@
         <v>50701163</v>
       </c>
       <c r="L253" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M253" s="5"/>
     </row>
@@ -13293,7 +13267,7 @@
         <v>199</v>
       </c>
       <c r="E254" s="10" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F254" s="10"/>
       <c r="G254" s="10"/>
@@ -13306,7 +13280,7 @@
         <v>50701176</v>
       </c>
       <c r="L254" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M254" s="5"/>
     </row>
@@ -13324,7 +13298,7 @@
         <v>199</v>
       </c>
       <c r="E255" s="10" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F255" s="10"/>
       <c r="G255" s="10"/>
@@ -13349,7 +13323,7 @@
         <v>199</v>
       </c>
       <c r="E256" s="10" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F256" s="10"/>
       <c r="G256" s="10"/>
@@ -13362,7 +13336,7 @@
         <v>30202000</v>
       </c>
       <c r="L256" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M256" s="5"/>
     </row>
@@ -13380,7 +13354,7 @@
         <v>199</v>
       </c>
       <c r="E257" s="10" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F257" s="10"/>
       <c r="G257" s="10"/>
@@ -13393,7 +13367,7 @@
         <v>50701067</v>
       </c>
       <c r="L257" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M257" s="5"/>
     </row>
@@ -13411,7 +13385,7 @@
         <v>199</v>
       </c>
       <c r="E258" s="10" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F258" s="10"/>
       <c r="G258" s="10"/>
@@ -13424,7 +13398,7 @@
         <v>10304000</v>
       </c>
       <c r="L258" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M258" s="5"/>
     </row>
@@ -13442,7 +13416,7 @@
         <v>199</v>
       </c>
       <c r="E259" s="10" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F259" s="10"/>
       <c r="G259" s="10"/>
@@ -13455,7 +13429,7 @@
         <v>30207000</v>
       </c>
       <c r="L259" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M259" s="5"/>
     </row>
@@ -13473,7 +13447,7 @@
         <v>199</v>
       </c>
       <c r="E260" s="10" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F260" s="10"/>
       <c r="G260" s="10"/>
@@ -13498,7 +13472,7 @@
         <v>199</v>
       </c>
       <c r="E261" s="10" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F261" s="10"/>
       <c r="G261" s="10"/>
@@ -13511,7 +13485,7 @@
         <v>50701169</v>
       </c>
       <c r="L261" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M261" s="5"/>
     </row>
@@ -13529,7 +13503,7 @@
         <v>199</v>
       </c>
       <c r="E262" s="10" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F262" s="10"/>
       <c r="G262" s="10"/>
@@ -13542,7 +13516,7 @@
         <v>50107000</v>
       </c>
       <c r="L262" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M262" s="5"/>
     </row>
@@ -13560,7 +13534,7 @@
         <v>199</v>
       </c>
       <c r="E263" s="10" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F263" s="10"/>
       <c r="G263" s="10"/>
@@ -13573,7 +13547,7 @@
         <v>50701060</v>
       </c>
       <c r="L263" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M263" s="5"/>
     </row>
@@ -13591,7 +13565,7 @@
         <v>199</v>
       </c>
       <c r="E264" s="10" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F264" s="10"/>
       <c r="G264" s="10"/>
@@ -13604,7 +13578,7 @@
         <v>50701144</v>
       </c>
       <c r="L264" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M264" s="5"/>
     </row>
@@ -13660,7 +13634,7 @@
         <v>50701033</v>
       </c>
       <c r="L266" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M266" s="5"/>
     </row>
@@ -13691,7 +13665,7 @@
         <v>50701161</v>
       </c>
       <c r="L267" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M267" s="5"/>
     </row>
@@ -13722,7 +13696,7 @@
         <v>10504000</v>
       </c>
       <c r="L268" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M268" s="5"/>
     </row>
@@ -13778,7 +13752,7 @@
         <v>10402011</v>
       </c>
       <c r="L270" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M270" s="5"/>
     </row>
@@ -13809,7 +13783,7 @@
         <v>50701034</v>
       </c>
       <c r="L271" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M271" s="5"/>
     </row>
@@ -13840,7 +13814,7 @@
         <v>50701065</v>
       </c>
       <c r="L272" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M272" s="5"/>
     </row>
@@ -13871,7 +13845,7 @@
         <v>50402000</v>
       </c>
       <c r="L273" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M273" s="5"/>
     </row>
@@ -13902,7 +13876,7 @@
         <v>50701166</v>
       </c>
       <c r="L274" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M274" s="5"/>
     </row>
@@ -13933,7 +13907,7 @@
         <v>50701104</v>
       </c>
       <c r="L275" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M275" s="5"/>
     </row>
@@ -13964,7 +13938,7 @@
         <v>50103000</v>
       </c>
       <c r="L276" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M276" s="5"/>
     </row>
@@ -13995,7 +13969,7 @@
         <v>50701024</v>
       </c>
       <c r="L277" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M277" s="5"/>
     </row>
@@ -14026,7 +14000,7 @@
         <v>10505000</v>
       </c>
       <c r="L278" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M278" s="5"/>
     </row>
@@ -14082,7 +14056,7 @@
         <v>30401004</v>
       </c>
       <c r="L280" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M280" s="5"/>
     </row>
@@ -14113,7 +14087,7 @@
         <v>50701177</v>
       </c>
       <c r="L281" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M281" s="5"/>
     </row>
@@ -14144,7 +14118,7 @@
         <v>50701029</v>
       </c>
       <c r="L282" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M282" s="5"/>
     </row>
@@ -14200,7 +14174,7 @@
         <v>30401002</v>
       </c>
       <c r="L284" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M284" s="5"/>
     </row>
@@ -14231,7 +14205,7 @@
         <v>50701011</v>
       </c>
       <c r="L285" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M285" s="5"/>
     </row>
@@ -14262,7 +14236,7 @@
         <v>50701080</v>
       </c>
       <c r="L286" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M286" s="5"/>
     </row>
@@ -14293,7 +14267,7 @@
         <v>50701173</v>
       </c>
       <c r="L287" s="9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M287" s="5"/>
     </row>
@@ -14324,7 +14298,7 @@
         <v>50701125</v>
       </c>
       <c r="L288" s="9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M288" s="5"/>
     </row>
@@ -14355,7 +14329,7 @@
         <v>50701108</v>
       </c>
       <c r="L289" s="9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M289" s="5"/>
     </row>
@@ -14386,7 +14360,7 @@
         <v>50701143</v>
       </c>
       <c r="L290" s="9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M290" s="5"/>
     </row>
@@ -14417,7 +14391,7 @@
         <v>50701176</v>
       </c>
       <c r="L291" s="9" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M291" s="5"/>
     </row>
@@ -14448,7 +14422,7 @@
         <v>50701065</v>
       </c>
       <c r="L292" s="9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M292" s="5"/>
     </row>
@@ -14479,7 +14453,7 @@
         <v>50701189</v>
       </c>
       <c r="L293" s="9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M293" s="5"/>
     </row>
@@ -14510,7 +14484,7 @@
         <v>50701066</v>
       </c>
       <c r="L294" s="9" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M294" s="5"/>
     </row>
@@ -14541,7 +14515,7 @@
         <v>30206000</v>
       </c>
       <c r="L295" s="9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M295" s="5"/>
     </row>
@@ -14572,7 +14546,7 @@
         <v>20403000</v>
       </c>
       <c r="L296" s="9" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M296" s="5"/>
     </row>
@@ -14603,7 +14577,7 @@
         <v>50701009</v>
       </c>
       <c r="L297" s="9" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M297" s="5"/>
     </row>
@@ -14634,7 +14608,7 @@
         <v>30401007</v>
       </c>
       <c r="L298" s="9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M298" s="5"/>
     </row>
@@ -14665,7 +14639,7 @@
         <v>50701064</v>
       </c>
       <c r="L299" s="9" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M299" s="5"/>
     </row>
@@ -14696,7 +14670,7 @@
         <v>50701182</v>
       </c>
       <c r="L300" s="9" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M300" s="5"/>
     </row>
@@ -14727,7 +14701,7 @@
         <v>50701116</v>
       </c>
       <c r="L301" s="9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M301" s="5"/>
     </row>
@@ -14758,7 +14732,7 @@
         <v>50605000</v>
       </c>
       <c r="L302" s="9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M302" s="5"/>
     </row>
@@ -14789,7 +14763,7 @@
         <v>50601000</v>
       </c>
       <c r="L303" s="9" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M303" s="5"/>
     </row>
@@ -14820,7 +14794,7 @@
         <v>50701168</v>
       </c>
       <c r="L304" s="9" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M304" s="5"/>
     </row>
@@ -14851,7 +14825,7 @@
         <v>50701122</v>
       </c>
       <c r="L305" s="9" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M305" s="5"/>
     </row>
@@ -14882,7 +14856,7 @@
         <v>50602001</v>
       </c>
       <c r="L306" s="9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M306" s="5"/>
     </row>
@@ -14913,7 +14887,7 @@
         <v>10402004</v>
       </c>
       <c r="L307" s="9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M307" s="5"/>
     </row>
@@ -14981,7 +14955,7 @@
         <v>199</v>
       </c>
       <c r="E310" s="10" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F310" s="10"/>
       <c r="G310" s="10"/>
@@ -14994,7 +14968,7 @@
         <v>50304000</v>
       </c>
       <c r="L310" s="9" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M310" s="5"/>
     </row>
@@ -15012,7 +14986,7 @@
         <v>199</v>
       </c>
       <c r="E311" s="10" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F311" s="10"/>
       <c r="G311" s="10"/>
@@ -15025,7 +14999,7 @@
         <v>50203000</v>
       </c>
       <c r="L311" s="9" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M311" s="5"/>
     </row>
@@ -15043,7 +15017,7 @@
         <v>199</v>
       </c>
       <c r="E312" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F312" s="10"/>
       <c r="G312" s="10"/>
@@ -15056,7 +15030,7 @@
         <v>50701190</v>
       </c>
       <c r="L312" s="9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M312" s="5"/>
     </row>
@@ -15074,7 +15048,7 @@
         <v>199</v>
       </c>
       <c r="E313" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F313" s="10"/>
       <c r="G313" s="10"/>
@@ -15087,7 +15061,7 @@
         <v>50701025</v>
       </c>
       <c r="L313" s="9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M313" s="5"/>
     </row>
@@ -15105,7 +15079,7 @@
         <v>199</v>
       </c>
       <c r="E314" s="10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F314" s="10"/>
       <c r="G314" s="10"/>
@@ -15118,7 +15092,7 @@
         <v>50701148</v>
       </c>
       <c r="L314" s="9" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M314" s="5"/>
     </row>
@@ -15136,7 +15110,7 @@
         <v>199</v>
       </c>
       <c r="E315" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F315" s="10"/>
       <c r="G315" s="10"/>
@@ -15161,7 +15135,7 @@
         <v>199</v>
       </c>
       <c r="E316" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F316" s="10"/>
       <c r="G316" s="10"/>
@@ -15174,7 +15148,7 @@
         <v>40403000</v>
       </c>
       <c r="L316" s="9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M316" s="5"/>
     </row>
@@ -15192,7 +15166,7 @@
         <v>199</v>
       </c>
       <c r="E317" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F317" s="10"/>
       <c r="G317" s="10"/>
@@ -15205,7 +15179,7 @@
         <v>50701103</v>
       </c>
       <c r="L317" s="9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M317" s="5"/>
     </row>
@@ -15223,7 +15197,7 @@
         <v>199</v>
       </c>
       <c r="E318" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F318" s="10"/>
       <c r="G318" s="10"/>
@@ -15236,7 +15210,7 @@
         <v>10302004</v>
       </c>
       <c r="L318" s="9" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M318" s="5"/>
     </row>
@@ -15254,7 +15228,7 @@
         <v>199</v>
       </c>
       <c r="E319" s="10" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F319" s="10"/>
       <c r="G319" s="10"/>
@@ -15267,7 +15241,7 @@
         <v>20502002</v>
       </c>
       <c r="L319" s="9" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M319" s="5"/>
     </row>
@@ -15285,7 +15259,7 @@
         <v>199</v>
       </c>
       <c r="E320" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F320" s="10"/>
       <c r="G320" s="10"/>
@@ -15298,7 +15272,7 @@
         <v>20401001</v>
       </c>
       <c r="L320" s="9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M320" s="5"/>
     </row>
@@ -15316,7 +15290,7 @@
         <v>199</v>
       </c>
       <c r="E321" s="10" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F321" s="10"/>
       <c r="G321" s="10"/>
@@ -15329,7 +15303,7 @@
         <v>50701047</v>
       </c>
       <c r="L321" s="9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M321" s="5"/>
     </row>
@@ -15347,7 +15321,7 @@
         <v>199</v>
       </c>
       <c r="E322" s="10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F322" s="10"/>
       <c r="G322" s="10"/>
@@ -15360,7 +15334,7 @@
         <v>20603000</v>
       </c>
       <c r="L322" s="9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M322" s="5"/>
     </row>
@@ -15378,7 +15352,7 @@
         <v>199</v>
       </c>
       <c r="E323" s="10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F323" s="10"/>
       <c r="G323" s="10"/>
@@ -15391,7 +15365,7 @@
         <v>50701142</v>
       </c>
       <c r="L323" s="9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M323" s="5"/>
     </row>
@@ -15409,7 +15383,7 @@
         <v>199</v>
       </c>
       <c r="E324" s="10" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F324" s="10"/>
       <c r="G324" s="10"/>
@@ -15434,7 +15408,7 @@
         <v>199</v>
       </c>
       <c r="E325" s="10" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F325" s="10"/>
       <c r="G325" s="10"/>
@@ -15447,7 +15421,7 @@
         <v>50701085</v>
       </c>
       <c r="L325" s="9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M325" s="5"/>
     </row>
@@ -15465,7 +15439,7 @@
         <v>199</v>
       </c>
       <c r="E326" s="10" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F326" s="10"/>
       <c r="G326" s="10"/>
@@ -15478,7 +15452,7 @@
         <v>20203000</v>
       </c>
       <c r="L326" s="9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M326" s="5"/>
     </row>
@@ -15496,7 +15470,7 @@
         <v>199</v>
       </c>
       <c r="E327" s="10" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F327" s="10"/>
       <c r="G327" s="10"/>
@@ -15509,7 +15483,7 @@
         <v>20401001</v>
       </c>
       <c r="L327" s="9" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M327" s="5"/>
     </row>
@@ -15527,7 +15501,7 @@
         <v>199</v>
       </c>
       <c r="E328" s="10" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F328" s="10"/>
       <c r="G328" s="10"/>
@@ -15552,7 +15526,7 @@
         <v>199</v>
       </c>
       <c r="E329" s="10" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F329" s="10"/>
       <c r="G329" s="10"/>
@@ -15565,7 +15539,7 @@
         <v>50701013</v>
       </c>
       <c r="L329" s="9" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M329" s="5"/>
     </row>
@@ -15583,7 +15557,7 @@
         <v>199</v>
       </c>
       <c r="E330" s="10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F330" s="10"/>
       <c r="G330" s="10"/>
@@ -15596,7 +15570,7 @@
         <v>50108000</v>
       </c>
       <c r="L330" s="9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M330" s="5"/>
     </row>
@@ -15614,7 +15588,7 @@
         <v>199</v>
       </c>
       <c r="E331" s="10" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F331" s="10"/>
       <c r="G331" s="10"/>
@@ -15627,7 +15601,7 @@
         <v>50701116</v>
       </c>
       <c r="L331" s="9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M331" s="5"/>
     </row>
@@ -15645,7 +15619,7 @@
         <v>199</v>
       </c>
       <c r="E332" s="10" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F332" s="10"/>
       <c r="G332" s="10"/>
@@ -15658,7 +15632,7 @@
         <v>50701179</v>
       </c>
       <c r="L332" s="9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M332" s="5"/>
     </row>
@@ -15676,7 +15650,7 @@
         <v>199</v>
       </c>
       <c r="E333" s="10" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F333" s="10"/>
       <c r="G333" s="10"/>
@@ -15699,7 +15673,7 @@
         <v>199</v>
       </c>
       <c r="E334" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F334" s="10"/>
       <c r="G334" s="10"/>
@@ -15712,7 +15686,7 @@
         <v>50701085</v>
       </c>
       <c r="L334" s="9" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M334" s="5"/>
     </row>
@@ -15730,7 +15704,7 @@
         <v>199</v>
       </c>
       <c r="E335" s="10" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F335" s="10"/>
       <c r="G335" s="10"/>
@@ -15743,7 +15717,7 @@
         <v>50701073</v>
       </c>
       <c r="L335" s="9" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M335" s="5"/>
     </row>
@@ -15761,7 +15735,7 @@
         <v>199</v>
       </c>
       <c r="E336" s="10" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F336" s="10"/>
       <c r="G336" s="10"/>
@@ -15784,7 +15758,7 @@
         <v>199</v>
       </c>
       <c r="E337" s="10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F337" s="10"/>
       <c r="G337" s="10"/>
@@ -15797,7 +15771,7 @@
         <v>50701094</v>
       </c>
       <c r="L337" s="9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M337" s="5"/>
     </row>
@@ -15815,7 +15789,7 @@
         <v>199</v>
       </c>
       <c r="E338" s="10" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F338" s="10"/>
       <c r="G338" s="10"/>
@@ -15828,7 +15802,7 @@
         <v>30201000</v>
       </c>
       <c r="L338" s="9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M338" s="5"/>
     </row>
@@ -15846,7 +15820,7 @@
         <v>199</v>
       </c>
       <c r="E339" s="10" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F339" s="10"/>
       <c r="G339" s="10"/>
@@ -15859,7 +15833,7 @@
         <v>30401006</v>
       </c>
       <c r="L339" s="9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M339" s="5"/>
     </row>

--- a/Software Requirements/Section B&C.xlsx
+++ b/Software Requirements/Section B&C.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\THFP2\user\Simon.Crowther\Documents\Git\ADLAS_Ada_System\Software Requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\Work\Programming\Ada\System Checks\Software Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Procedures Section" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Tests Section'!$A$1:$M$339</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1893,7 +1893,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2081,7 +2081,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet1" xfId="1"/>
+    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2373,11 +2373,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22:G26"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4719,7 +4719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5387,7 +5387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M342"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
